--- a/24-25_KBL_stats.xlsx
+++ b/24-25_KBL_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\2025\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D599F3-0DB1-44EA-A682-DE62979436F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC901FD-6AD6-4571-8939-DA015F4BADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="305">
   <si>
     <t>Season</t>
   </si>
@@ -393,9 +393,6 @@
     <t>TOV%_순위</t>
   </si>
   <si>
-    <t>서울 SK</t>
-  </si>
-  <si>
     <t>자밀 워니</t>
   </si>
   <si>
@@ -451,9 +448,6 @@
   </si>
   <si>
     <t>선상혁</t>
-  </si>
-  <si>
-    <t>수원 KT</t>
   </si>
   <si>
     <t>패리스 배스</t>
@@ -513,9 +507,6 @@
     <t>이호준</t>
   </si>
   <si>
-    <t>부산 KCC</t>
-  </si>
-  <si>
     <t>알리제 드숀 존슨</t>
   </si>
   <si>
@@ -570,9 +561,6 @@
     <t>이진욱</t>
   </si>
   <si>
-    <t>울산 모비즈</t>
-  </si>
-  <si>
     <t>게이지 프림</t>
   </si>
   <si>
@@ -622,9 +610,6 @@
   </si>
   <si>
     <t>서명진</t>
-  </si>
-  <si>
-    <t>원주 DB</t>
   </si>
   <si>
     <t>김종규</t>
@@ -690,9 +675,6 @@
     <t>최승빈</t>
   </si>
   <si>
-    <t>고양 소노</t>
-  </si>
-  <si>
     <t>치나누 오누아쿠</t>
   </si>
   <si>
@@ -753,9 +735,6 @@
     <t>조은후</t>
   </si>
   <si>
-    <t>서울 삼성</t>
-  </si>
-  <si>
     <t>코피 코번</t>
   </si>
   <si>
@@ -802,9 +781,6 @@
   </si>
   <si>
     <t>김한솔</t>
-  </si>
-  <si>
-    <t>창원 LG</t>
   </si>
   <si>
     <t>아셈 마레이</t>
@@ -859,9 +835,6 @@
   </si>
   <si>
     <t>한상혁</t>
-  </si>
-  <si>
-    <t>대구 가스공사</t>
   </si>
   <si>
     <t>듀반 맥스웰</t>
@@ -922,9 +895,6 @@
   </si>
   <si>
     <t>김진모</t>
-  </si>
-  <si>
-    <t>안양 KGC</t>
   </si>
   <si>
     <t>이종현</t>
@@ -1407,10 +1377,10 @@
   <dimension ref="A1:DO189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1877,13 +1847,11 @@
     </row>
     <row r="2" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D2" s="4">
         <v>52</v>
@@ -2305,13 +2273,11 @@
     </row>
     <row r="3" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="4">
         <v>54</v>
@@ -2733,13 +2699,11 @@
     </row>
     <row r="4" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4">
         <v>47</v>
@@ -3161,13 +3125,11 @@
     </row>
     <row r="5" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="4">
         <v>48</v>
@@ -3589,13 +3551,11 @@
     </row>
     <row r="6" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="4">
         <v>35</v>
@@ -4017,13 +3977,11 @@
     </row>
     <row r="7" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="4">
         <v>41</v>
@@ -4445,13 +4403,11 @@
     </row>
     <row r="8" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="4">
         <v>51</v>
@@ -4873,13 +4829,11 @@
     </row>
     <row r="9" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4">
         <v>31</v>
@@ -5301,13 +5255,11 @@
     </row>
     <row r="10" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="4">
         <v>35</v>
@@ -5729,13 +5681,11 @@
     </row>
     <row r="11" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4">
         <v>31</v>
@@ -6157,13 +6107,11 @@
     </row>
     <row r="12" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4">
         <v>45</v>
@@ -6585,13 +6533,11 @@
     </row>
     <row r="13" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="4">
         <v>17</v>
@@ -7013,13 +6959,11 @@
     </row>
     <row r="14" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="4">
         <v>23</v>
@@ -7441,13 +7385,11 @@
     </row>
     <row r="15" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
@@ -7869,13 +7811,11 @@
     </row>
     <row r="16" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="4">
         <v>6</v>
@@ -8297,13 +8237,11 @@
     </row>
     <row r="17" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -8725,13 +8663,11 @@
     </row>
     <row r="18" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -9153,13 +9089,11 @@
     </row>
     <row r="19" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="4">
         <v>7</v>
@@ -9581,13 +9515,11 @@
     </row>
     <row r="20" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -10009,13 +9941,11 @@
     </row>
     <row r="21" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" s="4">
         <v>54</v>
@@ -10437,13 +10367,11 @@
     </row>
     <row r="22" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D22" s="4">
         <v>45</v>
@@ -10865,13 +10793,11 @@
     </row>
     <row r="23" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" s="4">
         <v>52</v>
@@ -11293,13 +11219,11 @@
     </row>
     <row r="24" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D24" s="4">
         <v>50</v>
@@ -11721,13 +11645,11 @@
     </row>
     <row r="25" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="4">
         <v>44</v>
@@ -12149,13 +12071,11 @@
     </row>
     <row r="26" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D26" s="4">
         <v>45</v>
@@ -12577,13 +12497,11 @@
     </row>
     <row r="27" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D27" s="4">
         <v>52</v>
@@ -13005,13 +12923,11 @@
     </row>
     <row r="28" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D28" s="4">
         <v>54</v>
@@ -13433,13 +13349,11 @@
     </row>
     <row r="29" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D29" s="4">
         <v>42</v>
@@ -13861,13 +13775,11 @@
     </row>
     <row r="30" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D30" s="4">
         <v>27</v>
@@ -14289,13 +14201,11 @@
     </row>
     <row r="31" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D31" s="4">
         <v>23</v>
@@ -14717,13 +14627,11 @@
     </row>
     <row r="32" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D32" s="4">
         <v>27</v>
@@ -15145,13 +15053,11 @@
     </row>
     <row r="33" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D33" s="4">
         <v>35</v>
@@ -15573,13 +15479,11 @@
     </row>
     <row r="34" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D34" s="4">
         <v>14</v>
@@ -16001,13 +15905,11 @@
     </row>
     <row r="35" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D35" s="4">
         <v>17</v>
@@ -16429,13 +16331,11 @@
     </row>
     <row r="36" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D36" s="4">
         <v>5</v>
@@ -16857,13 +16757,11 @@
     </row>
     <row r="37" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -17285,13 +17183,11 @@
     </row>
     <row r="38" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" s="4">
         <v>2</v>
@@ -17713,13 +17609,11 @@
     </row>
     <row r="39" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -18141,13 +18035,11 @@
     </row>
     <row r="40" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D40" s="4">
         <v>53</v>
@@ -18569,13 +18461,11 @@
     </row>
     <row r="41" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D41" s="4">
         <v>53</v>
@@ -18997,13 +18887,11 @@
     </row>
     <row r="42" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D42" s="4">
         <v>54</v>
@@ -19425,13 +19313,11 @@
     </row>
     <row r="43" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D43" s="4">
         <v>35</v>
@@ -19853,13 +19739,11 @@
     </row>
     <row r="44" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D44" s="4">
         <v>48</v>
@@ -20281,13 +20165,11 @@
     </row>
     <row r="45" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D45" s="4">
         <v>48</v>
@@ -20709,13 +20591,11 @@
     </row>
     <row r="46" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D46" s="4">
         <v>28</v>
@@ -21137,13 +21017,11 @@
     </row>
     <row r="47" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D47" s="4">
         <v>53</v>
@@ -21565,13 +21443,11 @@
     </row>
     <row r="48" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D48" s="4">
         <v>20</v>
@@ -21993,13 +21869,11 @@
     </row>
     <row r="49" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D49" s="4">
         <v>52</v>
@@ -22421,13 +22295,11 @@
     </row>
     <row r="50" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D50" s="4">
         <v>20</v>
@@ -22849,13 +22721,11 @@
     </row>
     <row r="51" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D51" s="4">
         <v>21</v>
@@ -23277,13 +23147,11 @@
     </row>
     <row r="52" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D52" s="4">
         <v>2</v>
@@ -23705,13 +23573,11 @@
     </row>
     <row r="53" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D53" s="4">
         <v>24</v>
@@ -24133,13 +23999,11 @@
     </row>
     <row r="54" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D54" s="4">
         <v>21</v>
@@ -24561,13 +24425,11 @@
     </row>
     <row r="55" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D55" s="4">
         <v>15</v>
@@ -24989,13 +24851,11 @@
     </row>
     <row r="56" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" s="4">
         <v>8</v>
@@ -25417,13 +25277,11 @@
     </row>
     <row r="57" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="4">
         <v>3</v>
@@ -25845,13 +25703,11 @@
     </row>
     <row r="58" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D58" s="4">
         <v>54</v>
@@ -26273,13 +26129,11 @@
     </row>
     <row r="59" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D59" s="4">
         <v>48</v>
@@ -26701,13 +26555,11 @@
     </row>
     <row r="60" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D60" s="4">
         <v>53</v>
@@ -27129,13 +26981,11 @@
     </row>
     <row r="61" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B61" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D61" s="4">
         <v>50</v>
@@ -27557,13 +27407,11 @@
     </row>
     <row r="62" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D62" s="4">
         <v>52</v>
@@ -27985,13 +27833,11 @@
     </row>
     <row r="63" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D63" s="4">
         <v>39</v>
@@ -28413,13 +28259,11 @@
     </row>
     <row r="64" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D64" s="4">
         <v>52</v>
@@ -28841,13 +28685,11 @@
     </row>
     <row r="65" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -29269,13 +29111,11 @@
     </row>
     <row r="66" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D66" s="4">
         <v>41</v>
@@ -29697,13 +29537,11 @@
     </row>
     <row r="67" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D67" s="4">
         <v>27</v>
@@ -30125,13 +29963,11 @@
     </row>
     <row r="68" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D68" s="4">
         <v>43</v>
@@ -30553,13 +30389,11 @@
     </row>
     <row r="69" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D69" s="4">
         <v>21</v>
@@ -30981,13 +30815,11 @@
     </row>
     <row r="70" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D70" s="4">
         <v>39</v>
@@ -31409,13 +31241,11 @@
     </row>
     <row r="71" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D71" s="4">
         <v>6</v>
@@ -31837,13 +31667,11 @@
     </row>
     <row r="72" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D72" s="4">
         <v>24</v>
@@ -32265,13 +32093,11 @@
     </row>
     <row r="73" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D73" s="4">
         <v>7</v>
@@ -32693,13 +32519,11 @@
     </row>
     <row r="74" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D74" s="4">
         <v>4</v>
@@ -33121,13 +32945,11 @@
     </row>
     <row r="75" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D75" s="4">
         <v>49</v>
@@ -33549,13 +33371,11 @@
     </row>
     <row r="76" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D76" s="4">
         <v>53</v>
@@ -33977,13 +33797,11 @@
     </row>
     <row r="77" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D77" s="4">
         <v>51</v>
@@ -34405,13 +34223,11 @@
     </row>
     <row r="78" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D78" s="4">
         <v>48</v>
@@ -34833,13 +34649,11 @@
     </row>
     <row r="79" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B79" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D79" s="4">
         <v>54</v>
@@ -35261,13 +35075,11 @@
     </row>
     <row r="80" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D80" s="4">
         <v>52</v>
@@ -35689,13 +35501,11 @@
     </row>
     <row r="81" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D81" s="4">
         <v>54</v>
@@ -36117,13 +35927,11 @@
     </row>
     <row r="82" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D82" s="4">
         <v>44</v>
@@ -36545,13 +36353,11 @@
     </row>
     <row r="83" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D83" s="4">
         <v>46</v>
@@ -36973,13 +36779,11 @@
     </row>
     <row r="84" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D84" s="4">
         <v>18</v>
@@ -37401,13 +37205,11 @@
     </row>
     <row r="85" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D85" s="4">
         <v>24</v>
@@ -37829,13 +37631,11 @@
     </row>
     <row r="86" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D86" s="4">
         <v>9</v>
@@ -38257,13 +38057,11 @@
     </row>
     <row r="87" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D87" s="4">
         <v>11</v>
@@ -38685,13 +38483,11 @@
     </row>
     <row r="88" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D88" s="4">
         <v>21</v>
@@ -39113,13 +38909,11 @@
     </row>
     <row r="89" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D89" s="4">
         <v>4</v>
@@ -39541,13 +39335,11 @@
     </row>
     <row r="90" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
@@ -39969,13 +39761,11 @@
     </row>
     <row r="91" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D91" s="4">
         <v>9</v>
@@ -40397,13 +40187,11 @@
     </row>
     <row r="92" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D92" s="4">
         <v>3</v>
@@ -40825,13 +40613,11 @@
     </row>
     <row r="93" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D93" s="4">
         <v>27</v>
@@ -41253,13 +41039,11 @@
     </row>
     <row r="94" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
@@ -41681,13 +41465,11 @@
     </row>
     <row r="95" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -42109,13 +41891,11 @@
     </row>
     <row r="96" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D96" s="4">
         <v>44</v>
@@ -42537,13 +42317,11 @@
     </row>
     <row r="97" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D97" s="4">
         <v>33</v>
@@ -42965,13 +42743,11 @@
     </row>
     <row r="98" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D98" s="4">
         <v>47</v>
@@ -43393,13 +43169,11 @@
     </row>
     <row r="99" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D99" s="4">
         <v>36</v>
@@ -43821,13 +43595,11 @@
     </row>
     <row r="100" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D100" s="4">
         <v>44</v>
@@ -44249,13 +44021,11 @@
     </row>
     <row r="101" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B101" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D101" s="4">
         <v>46</v>
@@ -44677,13 +44447,11 @@
     </row>
     <row r="102" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D102" s="4">
         <v>43</v>
@@ -45105,13 +44873,11 @@
     </row>
     <row r="103" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D103" s="4">
         <v>35</v>
@@ -45533,13 +45299,11 @@
     </row>
     <row r="104" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D104" s="4">
         <v>38</v>
@@ -45961,13 +45725,11 @@
     </row>
     <row r="105" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D105" s="4">
         <v>27</v>
@@ -46389,13 +46151,11 @@
     </row>
     <row r="106" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D106" s="4">
         <v>30</v>
@@ -46817,13 +46577,11 @@
     </row>
     <row r="107" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D107" s="4">
         <v>22</v>
@@ -47245,13 +47003,11 @@
     </row>
     <row r="108" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D108" s="4">
         <v>14</v>
@@ -47673,13 +47429,11 @@
     </row>
     <row r="109" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D109" s="4">
         <v>16</v>
@@ -48101,13 +47855,11 @@
     </row>
     <row r="110" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D110" s="4">
         <v>27</v>
@@ -48529,13 +48281,11 @@
     </row>
     <row r="111" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D111" s="4">
         <v>9</v>
@@ -48957,13 +48707,11 @@
     </row>
     <row r="112" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D112" s="4">
         <v>11</v>
@@ -49385,13 +49133,11 @@
     </row>
     <row r="113" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D113" s="4">
         <v>5</v>
@@ -49813,13 +49559,11 @@
     </row>
     <row r="114" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D114" s="4">
         <v>22</v>
@@ -50241,13 +49985,11 @@
     </row>
     <row r="115" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D115" s="4">
         <v>8</v>
@@ -50669,13 +50411,11 @@
     </row>
     <row r="116" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D116" s="4">
         <v>48</v>
@@ -51097,13 +50837,11 @@
     </row>
     <row r="117" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D117" s="4">
         <v>40</v>
@@ -51525,13 +51263,11 @@
     </row>
     <row r="118" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D118" s="4">
         <v>54</v>
@@ -51953,13 +51689,11 @@
     </row>
     <row r="119" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D119" s="4">
         <v>52</v>
@@ -52381,13 +52115,11 @@
     </row>
     <row r="120" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D120" s="4">
         <v>22</v>
@@ -52809,13 +52541,11 @@
     </row>
     <row r="121" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D121" s="4">
         <v>54</v>
@@ -53237,13 +52967,11 @@
     </row>
     <row r="122" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D122" s="4">
         <v>44</v>
@@ -53665,13 +53393,11 @@
     </row>
     <row r="123" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B123" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D123" s="4">
         <v>24</v>
@@ -54093,13 +53819,11 @@
     </row>
     <row r="124" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D124" s="4">
         <v>43</v>
@@ -54521,13 +54245,11 @@
     </row>
     <row r="125" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D125" s="4">
         <v>54</v>
@@ -54949,13 +54671,11 @@
     </row>
     <row r="126" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D126" s="4">
         <v>36</v>
@@ -55377,13 +55097,11 @@
     </row>
     <row r="127" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D127" s="4">
         <v>11</v>
@@ -55805,13 +55523,11 @@
     </row>
     <row r="128" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B128" s="1"/>
       <c r="C128" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D128" s="4">
         <v>30</v>
@@ -56233,13 +55949,11 @@
     </row>
     <row r="129" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B129" s="1"/>
       <c r="C129" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D129" s="4">
         <v>36</v>
@@ -56661,13 +56375,11 @@
     </row>
     <row r="130" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D130" s="4">
         <v>19</v>
@@ -57089,13 +56801,11 @@
     </row>
     <row r="131" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D131" s="4">
         <v>11</v>
@@ -57517,13 +57227,11 @@
     </row>
     <row r="132" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D132" s="4">
         <v>6</v>
@@ -57945,13 +57653,11 @@
     </row>
     <row r="133" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D133" s="4">
         <v>2</v>
@@ -58373,13 +58079,11 @@
     </row>
     <row r="134" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D134" s="4">
         <v>40</v>
@@ -58801,13 +58505,11 @@
     </row>
     <row r="135" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D135" s="4">
         <v>54</v>
@@ -59229,13 +58931,11 @@
     </row>
     <row r="136" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D136" s="4">
         <v>34</v>
@@ -59657,13 +59357,11 @@
     </row>
     <row r="137" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D137" s="4">
         <v>52</v>
@@ -60085,13 +59783,11 @@
     </row>
     <row r="138" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D138" s="4">
         <v>54</v>
@@ -60513,13 +60209,11 @@
     </row>
     <row r="139" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D139" s="4">
         <v>53</v>
@@ -60941,13 +60635,11 @@
     </row>
     <row r="140" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D140" s="4">
         <v>54</v>
@@ -61369,13 +61061,11 @@
     </row>
     <row r="141" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B141" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D141" s="4">
         <v>54</v>
@@ -61797,13 +61487,11 @@
     </row>
     <row r="142" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D142" s="4">
         <v>10</v>
@@ -62225,13 +61913,11 @@
     </row>
     <row r="143" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D143" s="4">
         <v>31</v>
@@ -62653,13 +62339,11 @@
     </row>
     <row r="144" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D144" s="4">
         <v>53</v>
@@ -63081,13 +62765,11 @@
     </row>
     <row r="145" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D145" s="4">
         <v>47</v>
@@ -63509,13 +63191,11 @@
     </row>
     <row r="146" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B146" s="1"/>
       <c r="C146" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D146" s="4">
         <v>18</v>
@@ -63937,13 +63617,11 @@
     </row>
     <row r="147" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D147" s="4">
         <v>21</v>
@@ -64365,13 +64043,11 @@
     </row>
     <row r="148" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D148" s="4">
         <v>18</v>
@@ -64793,13 +64469,11 @@
     </row>
     <row r="149" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D149" s="4">
         <v>2</v>
@@ -65221,13 +64895,11 @@
     </row>
     <row r="150" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B150" s="1"/>
       <c r="C150" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
@@ -65649,13 +65321,11 @@
     </row>
     <row r="151" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B151" s="1"/>
       <c r="C151" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D151" s="4">
         <v>4</v>
@@ -66077,13 +65747,11 @@
     </row>
     <row r="152" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B152" s="1"/>
       <c r="C152" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D152" s="4">
         <v>40</v>
@@ -66505,13 +66173,11 @@
     </row>
     <row r="153" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D153" s="4">
         <v>49</v>
@@ -66933,13 +66599,11 @@
     </row>
     <row r="154" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B154" s="1"/>
       <c r="C154" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D154" s="4">
         <v>45</v>
@@ -67361,13 +67025,11 @@
     </row>
     <row r="155" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B155" s="1"/>
       <c r="C155" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D155" s="4">
         <v>39</v>
@@ -67789,13 +67451,11 @@
     </row>
     <row r="156" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B156" s="1"/>
       <c r="C156" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D156" s="4">
         <v>53</v>
@@ -68217,13 +67877,11 @@
     </row>
     <row r="157" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D157" s="4">
         <v>35</v>
@@ -68645,13 +68303,11 @@
     </row>
     <row r="158" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D158" s="4">
         <v>39</v>
@@ -69073,13 +68729,11 @@
     </row>
     <row r="159" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B159" s="1"/>
       <c r="C159" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D159" s="4">
         <v>23</v>
@@ -69501,13 +69155,11 @@
     </row>
     <row r="160" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B160" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D160" s="4">
         <v>33</v>
@@ -69929,13 +69581,11 @@
     </row>
     <row r="161" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B161" s="1"/>
       <c r="C161" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D161" s="4">
         <v>52</v>
@@ -70357,13 +70007,11 @@
     </row>
     <row r="162" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D162" s="4">
         <v>33</v>
@@ -70785,13 +70433,11 @@
     </row>
     <row r="163" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B163" s="1"/>
       <c r="C163" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D163" s="4">
         <v>16</v>
@@ -71213,13 +70859,11 @@
     </row>
     <row r="164" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B164" s="1"/>
       <c r="C164" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D164" s="4">
         <v>37</v>
@@ -71641,13 +71285,11 @@
     </row>
     <row r="165" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B165" s="1"/>
       <c r="C165" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D165" s="4">
         <v>19</v>
@@ -72069,13 +71711,11 @@
     </row>
     <row r="166" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B166" s="1"/>
       <c r="C166" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D166" s="4">
         <v>24</v>
@@ -72497,13 +72137,11 @@
     </row>
     <row r="167" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D167" s="4">
         <v>12</v>
@@ -72925,13 +72563,11 @@
     </row>
     <row r="168" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D168" s="4">
         <v>12</v>
@@ -73353,13 +72989,11 @@
     </row>
     <row r="169" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B169" s="1"/>
       <c r="C169" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D169" s="4">
         <v>6</v>
@@ -73781,13 +73415,11 @@
     </row>
     <row r="170" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B170" s="1"/>
       <c r="C170" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D170" s="4">
         <v>6</v>
@@ -74209,13 +73841,11 @@
     </row>
     <row r="171" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B171" s="1"/>
       <c r="C171" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D171" s="4">
         <v>5</v>
@@ -74637,13 +74267,11 @@
     </row>
     <row r="172" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D172" s="4">
         <v>52</v>
@@ -75065,13 +74693,11 @@
     </row>
     <row r="173" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D173" s="4">
         <v>39</v>
@@ -75493,13 +75119,11 @@
     </row>
     <row r="174" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D174" s="4">
         <v>53</v>
@@ -75921,13 +75545,11 @@
     </row>
     <row r="175" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B175" s="1"/>
       <c r="C175" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D175" s="4">
         <v>49</v>
@@ -76349,13 +75971,11 @@
     </row>
     <row r="176" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B176" s="1"/>
       <c r="C176" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D176" s="4">
         <v>30</v>
@@ -76777,13 +76397,11 @@
     </row>
     <row r="177" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B177" s="1"/>
       <c r="C177" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D177" s="4">
         <v>32</v>
@@ -77205,13 +76823,11 @@
     </row>
     <row r="178" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D178" s="4">
         <v>45</v>
@@ -77633,13 +77249,11 @@
     </row>
     <row r="179" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D179" s="4">
         <v>49</v>
@@ -78061,13 +77675,11 @@
     </row>
     <row r="180" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B180" s="1"/>
       <c r="C180" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D180" s="4">
         <v>36</v>
@@ -78489,13 +78101,11 @@
     </row>
     <row r="181" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B181" s="1"/>
       <c r="C181" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D181" s="4">
         <v>22</v>
@@ -78917,13 +78527,11 @@
     </row>
     <row r="182" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B182" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="D182" s="4">
         <v>27</v>
@@ -79345,13 +78953,11 @@
     </row>
     <row r="183" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B183" s="1"/>
       <c r="C183" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D183" s="4">
         <v>17</v>
@@ -79773,13 +79379,11 @@
     </row>
     <row r="184" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B184" s="1"/>
       <c r="C184" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D184" s="4">
         <v>32</v>
@@ -80201,13 +79805,11 @@
     </row>
     <row r="185" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B185" s="1"/>
       <c r="C185" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D185" s="4">
         <v>14</v>
@@ -80629,13 +80231,11 @@
     </row>
     <row r="186" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B186" s="1"/>
       <c r="C186" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D186" s="4">
         <v>14</v>
@@ -81057,13 +80657,11 @@
     </row>
     <row r="187" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B187" s="1"/>
       <c r="C187" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D187" s="4">
         <v>5</v>
@@ -81485,13 +81083,11 @@
     </row>
     <row r="188" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B188" s="1"/>
       <c r="C188" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D188" s="4">
         <v>1</v>
@@ -81913,13 +81509,11 @@
     </row>
     <row r="189" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D189" s="4">
         <v>11</v>

--- a/24-25_KBL_stats.xlsx
+++ b/24-25_KBL_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\2025\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513755B8-4E02-491A-92C0-F4F10D4C03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F656D057-A469-4DE5-AA40-F16548589366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
   </bookViews>
@@ -985,9 +985,6 @@
     <t>부산 KCC</t>
   </si>
   <si>
-    <t>울산 모비즈</t>
-  </si>
-  <si>
     <t>원주 DB</t>
   </si>
   <si>
@@ -1114,6 +1111,10 @@
   </si>
   <si>
     <t>DB to 정관장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 모비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1917,10 +1918,10 @@
   <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B210" sqref="B210"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2190,10 +2191,10 @@
         <v>65</v>
       </c>
       <c r="BO1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.3">
@@ -2418,7 +2419,7 @@
         <v>18.433988764044944</v>
       </c>
       <c r="BO2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.3">
@@ -2643,7 +2644,7 @@
         <v>12.392115698623748</v>
       </c>
       <c r="BO3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP3">
         <v>600000</v>
@@ -2870,7 +2871,7 @@
         <v>15.822784810126581</v>
       </c>
       <c r="BO4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP4">
         <v>50000</v>
@@ -3098,7 +3099,7 @@
         <v>18.818760856977416</v>
       </c>
       <c r="BO5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.3">
@@ -3323,7 +3324,7 @@
         <v>7.2648020341445694</v>
       </c>
       <c r="BO6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP6">
         <v>80000</v>
@@ -3549,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP7">
         <v>45000</v>
@@ -3776,7 +3777,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="BO8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP8">
         <v>45000</v>
@@ -4002,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP9">
         <v>40000</v>
@@ -4230,7 +4231,7 @@
         <v>11.852085967130215</v>
       </c>
       <c r="BO10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.3">
@@ -4455,7 +4456,7 @@
         <v>14.882520282372775</v>
       </c>
       <c r="BO11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP11">
         <v>500000</v>
@@ -4683,7 +4684,7 @@
         <v>4.2521827871640774</v>
       </c>
       <c r="BO12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP12">
         <v>500000</v>
@@ -4911,7 +4912,7 @@
         <v>13.531304856641311</v>
       </c>
       <c r="BO13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP13">
         <v>310000</v>
@@ -5139,7 +5140,7 @@
         <v>8.3467387015509757</v>
       </c>
       <c r="BO14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.3">
@@ -5364,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="BO15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP15">
         <v>70000</v>
@@ -5590,7 +5591,7 @@
         <v>50</v>
       </c>
       <c r="BO16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP16">
         <v>45000</v>
@@ -5818,7 +5819,7 @@
         <v>12.790240062967335</v>
       </c>
       <c r="BO17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP17">
         <v>300000</v>
@@ -6046,7 +6047,7 @@
         <v>24.770869457517957</v>
       </c>
       <c r="BO18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP18">
         <v>220000</v>
@@ -6057,7 +6058,7 @@
         <v>197</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>297</v>
@@ -6273,7 +6274,7 @@
         <v>16.666666666666668</v>
       </c>
       <c r="BO19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP19">
         <v>16866</v>
@@ -6284,7 +6285,7 @@
         <v>197</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>292</v>
@@ -6501,7 +6502,7 @@
         <v>18.028846153846153</v>
       </c>
       <c r="BO20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.3">
@@ -6509,7 +6510,7 @@
         <v>197</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>132</v>
@@ -6726,7 +6727,7 @@
         <v>20.404542228530872</v>
       </c>
       <c r="BO21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP21">
         <v>280000</v>
@@ -6737,7 +6738,7 @@
         <v>197</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>164</v>
@@ -6954,7 +6955,7 @@
         <v>11.1358574610245</v>
       </c>
       <c r="BO22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP22">
         <v>64000</v>
@@ -6965,7 +6966,7 @@
         <v>197</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>158</v>
@@ -7182,7 +7183,7 @@
         <v>13.930698776660476</v>
       </c>
       <c r="BO23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.3">
@@ -7190,7 +7191,7 @@
         <v>197</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>165</v>
@@ -7407,7 +7408,7 @@
         <v>14.988629315691544</v>
       </c>
       <c r="BO24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP24">
         <v>130000</v>
@@ -7418,7 +7419,7 @@
         <v>197</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>159</v>
@@ -7635,7 +7636,7 @@
         <v>9.7445679217117274</v>
       </c>
       <c r="BO25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP25">
         <v>100000</v>
@@ -7646,7 +7647,7 @@
         <v>197</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>296</v>
@@ -7862,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="BO26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP26">
         <v>40000</v>
@@ -7873,7 +7874,7 @@
         <v>197</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>77</v>
@@ -8090,7 +8091,7 @@
         <v>20.257826887661142</v>
       </c>
       <c r="BO27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP27">
         <v>50000</v>
@@ -8101,7 +8102,7 @@
         <v>197</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>298</v>
@@ -8316,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="BO28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP28">
         <v>40000</v>
@@ -8327,7 +8328,7 @@
         <v>197</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>294</v>
@@ -8544,7 +8545,7 @@
         <v>4.7326076668244204</v>
       </c>
       <c r="BO29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP29">
         <v>250000</v>
@@ -8555,7 +8556,7 @@
         <v>197</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>196</v>
@@ -8770,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="BO30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP30">
         <v>40000</v>
@@ -8781,7 +8782,7 @@
         <v>197</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>144</v>
@@ -8998,7 +8999,7 @@
         <v>9.1936801961318437</v>
       </c>
       <c r="BO31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP31">
         <v>550000</v>
@@ -9009,7 +9010,7 @@
         <v>197</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>166</v>
@@ -9226,7 +9227,7 @@
         <v>10.464114243506094</v>
       </c>
       <c r="BO32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP32">
         <v>110000</v>
@@ -9237,7 +9238,7 @@
         <v>197</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>117</v>
@@ -9454,7 +9455,7 @@
         <v>10.295126973232669</v>
       </c>
       <c r="BO33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP33">
         <v>250000</v>
@@ -9465,7 +9466,7 @@
         <v>197</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>295</v>
@@ -9682,7 +9683,7 @@
         <v>6.8073519400953035</v>
       </c>
       <c r="BO34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.3">
@@ -9690,7 +9691,7 @@
         <v>197</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>291</v>
@@ -9907,7 +9908,7 @@
         <v>10.213741218673707</v>
       </c>
       <c r="BO35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.3">
@@ -9915,7 +9916,7 @@
         <v>197</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>170</v>
@@ -10132,7 +10133,7 @@
         <v>22.977941176470587</v>
       </c>
       <c r="BO36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP36">
         <v>75000</v>
@@ -10143,7 +10144,7 @@
         <v>197</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>70</v>
@@ -10360,7 +10361,7 @@
         <v>6.0975609756097562</v>
       </c>
       <c r="BO37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP37">
         <v>250000</v>
@@ -10371,7 +10372,7 @@
         <v>197</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>123</v>
@@ -10588,7 +10589,7 @@
         <v>14.150398521427748</v>
       </c>
       <c r="BO38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP38">
         <v>700000</v>
@@ -10599,7 +10600,7 @@
         <v>197</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>256</v>
@@ -10815,7 +10816,7 @@
         <v>19.434628975265017</v>
       </c>
       <c r="BO39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.3">
@@ -10823,7 +10824,7 @@
         <v>197</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>154</v>
@@ -11040,7 +11041,7 @@
         <v>21.744382701135539</v>
       </c>
       <c r="BO40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP40">
         <v>100000</v>
@@ -11051,7 +11052,7 @@
         <v>197</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C41" s="50" t="s">
         <v>128</v>
@@ -11246,7 +11247,7 @@
         <v>15.408320493066256</v>
       </c>
       <c r="BO41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:68" x14ac:dyDescent="0.3">
@@ -11254,7 +11255,7 @@
         <v>197</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>122</v>
@@ -11449,7 +11450,7 @@
         <v>15.600624024960998</v>
       </c>
       <c r="BO42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP42">
         <v>600000</v>
@@ -11460,7 +11461,7 @@
         <v>197</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>131</v>
@@ -11677,7 +11678,7 @@
         <v>9.5785440613026829</v>
       </c>
       <c r="BO43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP43">
         <v>58000</v>
@@ -11688,7 +11689,7 @@
         <v>197</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>175</v>
@@ -11905,7 +11906,7 @@
         <v>9.7847358121330714</v>
       </c>
       <c r="BO44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP44">
         <v>40000</v>
@@ -11916,7 +11917,7 @@
         <v>197</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>124</v>
@@ -12133,7 +12134,7 @@
         <v>11.793956394236899</v>
       </c>
       <c r="BO45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP45">
         <v>64000</v>
@@ -12144,7 +12145,7 @@
         <v>197</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>262</v>
@@ -12359,7 +12360,7 @@
         <v>50</v>
       </c>
       <c r="BO46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:68" x14ac:dyDescent="0.3">
@@ -12367,7 +12368,7 @@
         <v>197</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>127</v>
@@ -12584,7 +12585,7 @@
         <v>12.462612163509473</v>
       </c>
       <c r="BO47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP47">
         <v>170000</v>
@@ -12595,7 +12596,7 @@
         <v>197</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>251</v>
@@ -12812,7 +12813,7 @@
         <v>11.066843736166444</v>
       </c>
       <c r="BO48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:68" x14ac:dyDescent="0.3">
@@ -12820,7 +12821,7 @@
         <v>197</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>163</v>
@@ -13037,7 +13038,7 @@
         <v>12.144013715591962</v>
       </c>
       <c r="BO49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP49">
         <v>300000</v>
@@ -13048,7 +13049,7 @@
         <v>197</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>126</v>
@@ -13265,7 +13266,7 @@
         <v>13.005554251740593</v>
       </c>
       <c r="BO50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:68" x14ac:dyDescent="0.3">
@@ -13273,7 +13274,7 @@
         <v>197</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>129</v>
@@ -13490,7 +13491,7 @@
         <v>8.7229588276343328</v>
       </c>
       <c r="BO51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP51">
         <v>54000</v>
@@ -13501,7 +13502,7 @@
         <v>197</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>133</v>
@@ -13716,7 +13717,7 @@
         <v>50</v>
       </c>
       <c r="BO52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP52">
         <v>48000</v>
@@ -13727,7 +13728,7 @@
         <v>197</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>260</v>
@@ -13944,7 +13945,7 @@
         <v>14.595496246872393</v>
       </c>
       <c r="BO53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:68" x14ac:dyDescent="0.3">
@@ -13952,7 +13953,7 @@
         <v>197</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C54" s="50" t="s">
         <v>188</v>
@@ -14147,7 +14148,7 @@
         <v>13.243863676496556</v>
       </c>
       <c r="BO54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP54">
         <v>420000</v>
@@ -14158,7 +14159,7 @@
         <v>197</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C55" s="50" t="s">
         <v>190</v>
@@ -14353,7 +14354,7 @@
         <v>18.879173290937995</v>
       </c>
       <c r="BO55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP55">
         <v>400000</v>
@@ -14364,7 +14365,7 @@
         <v>197</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>134</v>
@@ -14580,7 +14581,7 @@
         <v>34.722222222222221</v>
       </c>
       <c r="BO56" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP56">
         <v>45000</v>
@@ -14591,7 +14592,7 @@
         <v>197</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>135</v>
@@ -14808,7 +14809,7 @@
         <v>18.236429950654365</v>
       </c>
       <c r="BO57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:68" x14ac:dyDescent="0.3">
@@ -14816,7 +14817,7 @@
         <v>197</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>110</v>
@@ -15033,7 +15034,7 @@
         <v>9.5061188811188799</v>
       </c>
       <c r="BO58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:68" x14ac:dyDescent="0.3">
@@ -15041,7 +15042,7 @@
         <v>197</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>115</v>
@@ -15258,7 +15259,7 @@
         <v>12.087026591458502</v>
       </c>
       <c r="BO59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP59">
         <v>130000</v>
@@ -15269,7 +15270,7 @@
         <v>197</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>241</v>
@@ -15486,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="BO60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP60">
         <v>15629</v>
@@ -15497,7 +15498,7 @@
         <v>197</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C61" s="41" t="s">
         <v>114</v>
@@ -15692,7 +15693,7 @@
         <v>21.41982864137087</v>
       </c>
       <c r="BO61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP61">
         <v>370000</v>
@@ -15703,7 +15704,7 @@
         <v>197</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>119</v>
@@ -15919,7 +15920,7 @@
         <v>16.666666666666668</v>
       </c>
       <c r="BO62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP62">
         <v>165000</v>
@@ -15930,7 +15931,7 @@
         <v>197</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>120</v>
@@ -16147,7 +16148,7 @@
         <v>12.856150104239054</v>
       </c>
       <c r="BO63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:68" x14ac:dyDescent="0.3">
@@ -16155,7 +16156,7 @@
         <v>197</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>116</v>
@@ -16372,7 +16373,7 @@
         <v>15.980629539951574</v>
       </c>
       <c r="BO64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP64">
         <v>110000</v>
@@ -16383,7 +16384,7 @@
         <v>197</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>121</v>
@@ -16600,7 +16601,7 @@
         <v>13.384730699218332</v>
       </c>
       <c r="BO65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP65">
         <v>310000</v>
@@ -16611,7 +16612,7 @@
         <v>197</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>240</v>
@@ -16828,7 +16829,7 @@
         <v>14.45165512352075</v>
       </c>
       <c r="BO66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:68" x14ac:dyDescent="0.3">
@@ -16836,7 +16837,7 @@
         <v>197</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>118</v>
@@ -17053,7 +17054,7 @@
         <v>10.162601626016261</v>
       </c>
       <c r="BO67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP67">
         <v>78000</v>
@@ -17064,7 +17065,7 @@
         <v>197</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>242</v>
@@ -17279,7 +17280,7 @@
         <v>0</v>
       </c>
       <c r="BO68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:68" x14ac:dyDescent="0.3">
@@ -17287,7 +17288,7 @@
         <v>197</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>173</v>
@@ -17482,7 +17483,7 @@
         <v>11.928429423459246</v>
       </c>
       <c r="BO69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP69">
         <v>430000</v>
@@ -17493,7 +17494,7 @@
         <v>197</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>167</v>
@@ -17710,7 +17711,7 @@
         <v>14.101531023368251</v>
       </c>
       <c r="BO70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP70">
         <v>65000</v>
@@ -17721,7 +17722,7 @@
         <v>197</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>113</v>
@@ -17938,7 +17939,7 @@
         <v>12.962858592120837</v>
       </c>
       <c r="BO71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP71">
         <v>290000</v>
@@ -17949,7 +17950,7 @@
         <v>197</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>112</v>
@@ -18166,7 +18167,7 @@
         <v>15.979302998021609</v>
       </c>
       <c r="BO72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP72">
         <v>350000</v>
@@ -18177,7 +18178,7 @@
         <v>197</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>243</v>
@@ -18392,7 +18393,7 @@
         <v>0</v>
       </c>
       <c r="BO73" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP73">
         <v>40833</v>
@@ -18403,7 +18404,7 @@
         <v>197</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>140</v>
@@ -18620,7 +18621,7 @@
         <v>18.263323924954342</v>
       </c>
       <c r="BO74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP74">
         <v>150000</v>
@@ -18631,7 +18632,7 @@
         <v>197</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>111</v>
@@ -18848,7 +18849,7 @@
         <v>14.338731443994602</v>
       </c>
       <c r="BO75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP75">
         <v>390000</v>
@@ -18859,7 +18860,7 @@
         <v>197</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>187</v>
@@ -19076,7 +19077,7 @@
         <v>6.9541029207232263</v>
       </c>
       <c r="BO76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP76">
         <v>100000</v>
@@ -19087,10 +19088,10 @@
         <v>197</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D77" s="24">
         <v>16</v>
@@ -19282,7 +19283,7 @@
         <v>15.033072760072157</v>
       </c>
       <c r="BO77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP77">
         <v>175000</v>
@@ -19293,7 +19294,7 @@
         <v>197</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>122</v>
@@ -19488,7 +19489,7 @@
         <v>9.2936802973977706</v>
       </c>
       <c r="BO78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP78">
         <v>600000</v>
@@ -19499,7 +19500,7 @@
         <v>197</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>169</v>
@@ -19715,7 +19716,7 @@
         <v>9.0909090909090917</v>
       </c>
       <c r="BO79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP79">
         <v>40000</v>
@@ -19726,7 +19727,7 @@
         <v>197</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>195</v>
@@ -19941,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="BO80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP80">
         <v>50000</v>
@@ -19952,7 +19953,7 @@
         <v>197</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C81" s="41" t="s">
         <v>218</v>
@@ -20147,7 +20148,7 @@
         <v>11.910838863365662</v>
       </c>
       <c r="BO81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:68" x14ac:dyDescent="0.3">
@@ -20155,7 +20156,7 @@
         <v>197</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>306</v>
@@ -20372,7 +20373,7 @@
         <v>20.016012810248199</v>
       </c>
       <c r="BO82" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP82">
         <v>137000</v>
@@ -20383,10 +20384,10 @@
         <v>197</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D83" s="24">
         <v>54</v>
@@ -20600,7 +20601,7 @@
         <v>15.026083012020866</v>
       </c>
       <c r="BO83" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP83">
         <v>220000</v>
@@ -20611,7 +20612,7 @@
         <v>197</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>92</v>
@@ -20824,7 +20825,7 @@
         <v>100</v>
       </c>
       <c r="BO84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP84">
         <v>45000</v>
@@ -20835,7 +20836,7 @@
         <v>197</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>191</v>
@@ -21052,7 +21053,7 @@
         <v>11.76355259288305</v>
       </c>
       <c r="BO85" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP85">
         <v>200000</v>
@@ -21063,7 +21064,7 @@
         <v>197</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>307</v>
@@ -21280,7 +21281,7 @@
         <v>19.639934533551553</v>
       </c>
       <c r="BO86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP86">
         <v>119772</v>
@@ -21291,7 +21292,7 @@
         <v>197</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>308</v>
@@ -21508,7 +21509,7 @@
         <v>13.080444735120995</v>
       </c>
       <c r="BO87" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:68" x14ac:dyDescent="0.3">
@@ -21516,7 +21517,7 @@
         <v>197</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>74</v>
@@ -21733,7 +21734,7 @@
         <v>16.679021497405486</v>
       </c>
       <c r="BO88" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP88">
         <v>70000</v>
@@ -21744,7 +21745,7 @@
         <v>197</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>193</v>
@@ -21961,7 +21962,7 @@
         <v>15.527950310559005</v>
       </c>
       <c r="BO89" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP89">
         <v>50000</v>
@@ -21972,7 +21973,7 @@
         <v>197</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C90" s="41" t="s">
         <v>185</v>
@@ -22167,7 +22168,7 @@
         <v>14.285714285714286</v>
       </c>
       <c r="BO90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP90">
         <v>70000</v>
@@ -22178,7 +22179,7 @@
         <v>197</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>186</v>
@@ -22395,7 +22396,7 @@
         <v>20.378219758721876</v>
       </c>
       <c r="BO91" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP91">
         <v>250000</v>
@@ -22406,7 +22407,7 @@
         <v>197</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>189</v>
@@ -22623,7 +22624,7 @@
         <v>11.165245635403979</v>
       </c>
       <c r="BO92" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP92">
         <v>90000</v>
@@ -22634,7 +22635,7 @@
         <v>197</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C93" s="41" t="s">
         <v>188</v>
@@ -22829,7 +22830,7 @@
         <v>14.048890137679122</v>
       </c>
       <c r="BO93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP93">
         <v>420000</v>
@@ -22840,7 +22841,7 @@
         <v>197</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>309</v>
@@ -23057,7 +23058,7 @@
         <v>11.409736308316431</v>
       </c>
       <c r="BO94" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:68" x14ac:dyDescent="0.3">
@@ -23065,7 +23066,7 @@
         <v>197</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C95" s="41" t="s">
         <v>190</v>
@@ -23260,7 +23261,7 @@
         <v>13.822688274547186</v>
       </c>
       <c r="BO95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP95">
         <v>400000</v>
@@ -23271,7 +23272,7 @@
         <v>197</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C96" s="53" t="s">
         <v>212</v>
@@ -23466,7 +23467,7 @@
         <v>13.894502829426031</v>
       </c>
       <c r="BO96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:68" x14ac:dyDescent="0.3">
@@ -23474,7 +23475,7 @@
         <v>197</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>310</v>
@@ -23691,7 +23692,7 @@
         <v>10.871816110996066</v>
       </c>
       <c r="BO97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:68" x14ac:dyDescent="0.3">
@@ -23699,7 +23700,7 @@
         <v>197</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>311</v>
@@ -23916,7 +23917,7 @@
         <v>9.6631695196024303</v>
       </c>
       <c r="BO98" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP98">
         <v>35387</v>
@@ -24144,7 +24145,7 @@
         <v>11.261261261261263</v>
       </c>
       <c r="BO99" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP99">
         <v>50000</v>
@@ -24372,7 +24373,7 @@
         <v>8.5664714812405123</v>
       </c>
       <c r="BO100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:68" x14ac:dyDescent="0.3">
@@ -24597,7 +24598,7 @@
         <v>11.318126414765802</v>
       </c>
       <c r="BO101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP101">
         <v>750000</v>
@@ -24825,7 +24826,7 @@
         <v>9.4881276761385749</v>
       </c>
       <c r="BO102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP102">
         <v>120000</v>
@@ -25053,7 +25054,7 @@
         <v>0</v>
       </c>
       <c r="BO103" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP103">
         <v>140000</v>
@@ -25281,7 +25282,7 @@
         <v>14.270182114705083</v>
       </c>
       <c r="BO104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP104">
         <v>41000</v>
@@ -25509,7 +25510,7 @@
         <v>12.711864406779661</v>
       </c>
       <c r="BO105" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP105">
         <v>80000</v>
@@ -25737,7 +25738,7 @@
         <v>19.25008369601607</v>
       </c>
       <c r="BO106" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP106">
         <v>48931</v>
@@ -25965,7 +25966,7 @@
         <v>11.904761904761905</v>
       </c>
       <c r="BO107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP107">
         <v>75000</v>
@@ -26192,7 +26193,7 @@
         <v>0</v>
       </c>
       <c r="BO108" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP108">
         <v>45000</v>
@@ -26420,7 +26421,7 @@
         <v>13.440860215053764</v>
       </c>
       <c r="BO109" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP109">
         <v>90000</v>
@@ -26647,7 +26648,7 @@
         <v>0</v>
       </c>
       <c r="BO110" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP110">
         <v>40000</v>
@@ -26875,7 +26876,7 @@
         <v>8.4175084175084169</v>
       </c>
       <c r="BO111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:68" x14ac:dyDescent="0.3">
@@ -27100,7 +27101,7 @@
         <v>12.330456226880395</v>
       </c>
       <c r="BO112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="113" spans="1:68" x14ac:dyDescent="0.3">
@@ -27325,7 +27326,7 @@
         <v>16.462841015992474</v>
       </c>
       <c r="BO113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:68" x14ac:dyDescent="0.3">
@@ -27550,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="BO114" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:68" x14ac:dyDescent="0.3">
@@ -27775,7 +27776,7 @@
         <v>20.080321285140563</v>
       </c>
       <c r="BO115" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP115">
         <v>50000</v>
@@ -28003,7 +28004,7 @@
         <v>23.328149300155523</v>
       </c>
       <c r="BO116" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP116">
         <v>62000</v>
@@ -28230,7 +28231,7 @@
         <v>11.051759071652238</v>
       </c>
       <c r="BO117" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP117">
         <v>340000</v>
@@ -28458,7 +28459,7 @@
         <v>8.2855321861057991</v>
       </c>
       <c r="BO118" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP118">
         <v>360000</v>
@@ -28686,7 +28687,7 @@
         <v>15.701614236130242</v>
       </c>
       <c r="BO119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP119">
         <v>700000</v>
@@ -28697,7 +28698,7 @@
         <v>197</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>285</v>
@@ -28914,7 +28915,7 @@
         <v>13.399382816306643</v>
       </c>
       <c r="BO120" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:68" x14ac:dyDescent="0.3">
@@ -28922,7 +28923,7 @@
         <v>197</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>290</v>
@@ -29137,7 +29138,7 @@
         <v>0</v>
       </c>
       <c r="BO121" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP121">
         <v>40000</v>
@@ -29148,7 +29149,7 @@
         <v>197</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>146</v>
@@ -29363,7 +29364,7 @@
         <v>0</v>
       </c>
       <c r="BO122" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP122">
         <v>50000</v>
@@ -29374,7 +29375,7 @@
         <v>197</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>157</v>
@@ -29590,7 +29591,7 @@
         <v>25</v>
       </c>
       <c r="BO123" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP123">
         <v>40000</v>
@@ -29601,7 +29602,7 @@
         <v>197</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>130</v>
@@ -29818,7 +29819,7 @@
         <v>23.736055067647754</v>
       </c>
       <c r="BO124" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP124">
         <v>40000</v>
@@ -29829,7 +29830,7 @@
         <v>197</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>153</v>
@@ -30046,7 +30047,7 @@
         <v>17.152658662092623</v>
       </c>
       <c r="BO125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP125">
         <v>70000</v>
@@ -30057,7 +30058,7 @@
         <v>197</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>152</v>
@@ -30273,7 +30274,7 @@
         <v>40</v>
       </c>
       <c r="BO126" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP126">
         <v>270000</v>
@@ -30284,7 +30285,7 @@
         <v>197</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C127" s="41" t="s">
         <v>185</v>
@@ -30479,7 +30480,7 @@
         <v>14.519986334130509</v>
       </c>
       <c r="BO127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP127">
         <v>70000</v>
@@ -30490,7 +30491,7 @@
         <v>197</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>150</v>
@@ -30707,7 +30708,7 @@
         <v>10.350379513915509</v>
       </c>
       <c r="BO128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP128">
         <v>150000</v>
@@ -30718,7 +30719,7 @@
         <v>197</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C129" s="14" t="s">
         <v>139</v>
@@ -30935,7 +30936,7 @@
         <v>20.452613684657884</v>
       </c>
       <c r="BO129" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP129">
         <v>360000</v>
@@ -30946,7 +30947,7 @@
         <v>197</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C130" s="14" t="s">
         <v>289</v>
@@ -31162,7 +31163,7 @@
         <v>0</v>
       </c>
       <c r="BO130" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" spans="1:68" x14ac:dyDescent="0.3">
@@ -31170,7 +31171,7 @@
         <v>197</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C131" s="22" t="s">
         <v>161</v>
@@ -31387,7 +31388,7 @@
         <v>15.036231884057971</v>
       </c>
       <c r="BO131" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:68" x14ac:dyDescent="0.3">
@@ -31395,7 +31396,7 @@
         <v>197</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C132" s="14" t="s">
         <v>156</v>
@@ -31611,7 +31612,7 @@
         <v>0</v>
       </c>
       <c r="BO132" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP132">
         <v>85000</v>
@@ -31622,7 +31623,7 @@
         <v>197</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>151</v>
@@ -31839,7 +31840,7 @@
         <v>14.998125234345705</v>
       </c>
       <c r="BO133" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP133">
         <v>70000</v>
@@ -31850,7 +31851,7 @@
         <v>197</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>90</v>
@@ -32067,7 +32068,7 @@
         <v>16.485144847003038</v>
       </c>
       <c r="BO134" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP134">
         <v>210000</v>
@@ -32078,10 +32079,10 @@
         <v>197</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>255</v>
@@ -32295,7 +32296,7 @@
         <v>9.9800399201596814</v>
       </c>
       <c r="BO135" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP135">
         <v>130000</v>
@@ -32306,7 +32307,7 @@
         <v>197</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>138</v>
@@ -32523,7 +32524,7 @@
         <v>9.7821833833311587</v>
       </c>
       <c r="BO136" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP136">
         <v>250000</v>
@@ -32534,7 +32535,7 @@
         <v>197</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>149</v>
@@ -32750,7 +32751,7 @@
         <v>13.712942405641897</v>
       </c>
       <c r="BO137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="138" spans="1:68" x14ac:dyDescent="0.3">
@@ -32758,7 +32759,7 @@
         <v>197</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C138" s="14" t="s">
         <v>288</v>
@@ -32975,7 +32976,7 @@
         <v>27.57352941176471</v>
       </c>
       <c r="BO138" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:68" x14ac:dyDescent="0.3">
@@ -33200,7 +33201,7 @@
         <v>14.90066225165563</v>
       </c>
       <c r="BO139" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP139">
         <v>45000</v>
@@ -33428,7 +33429,7 @@
         <v>15.377855887521967</v>
       </c>
       <c r="BO140" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:68" x14ac:dyDescent="0.3">
@@ -33631,7 +33632,7 @@
         <v>11.7455728225515</v>
       </c>
       <c r="BO141" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:68" x14ac:dyDescent="0.3">
@@ -33856,7 +33857,7 @@
         <v>19.247219846022244</v>
       </c>
       <c r="BO142" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP142">
         <v>560000</v>
@@ -34083,7 +34084,7 @@
         <v>25</v>
       </c>
       <c r="BO143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP143">
         <v>60000</v>
@@ -34311,7 +34312,7 @@
         <v>12.942191544434857</v>
       </c>
       <c r="BO144" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP144">
         <v>45000</v>
@@ -34539,7 +34540,7 @@
         <v>9.0097820490818599</v>
       </c>
       <c r="BO145" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP145">
         <v>90000</v>
@@ -34767,7 +34768,7 @@
         <v>10.548523206751055</v>
       </c>
       <c r="BO146" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP146">
         <v>500000</v>
@@ -34995,7 +34996,7 @@
         <v>17.361111111111111</v>
       </c>
       <c r="BO147" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP147">
         <v>60000</v>
@@ -35223,7 +35224,7 @@
         <v>10.593220338983052</v>
       </c>
       <c r="BO148" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:68" x14ac:dyDescent="0.3">
@@ -35448,7 +35449,7 @@
         <v>18.161497625034926</v>
       </c>
       <c r="BO149" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP149">
         <v>240000</v>
@@ -35676,7 +35677,7 @@
         <v>11.361484567316795</v>
       </c>
       <c r="BO150" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP150">
         <v>80000</v>
@@ -35902,7 +35903,7 @@
         <v>0</v>
       </c>
       <c r="BO151" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP151">
         <v>45000</v>
@@ -36130,7 +36131,7 @@
         <v>13.189629182996683</v>
       </c>
       <c r="BO152" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP152">
         <v>150000</v>
@@ -36358,7 +36359,7 @@
         <v>13.490485657483669</v>
       </c>
       <c r="BO153" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP153">
         <v>600000</v>
@@ -36564,7 +36565,7 @@
         <v>11.183407889385929</v>
       </c>
       <c r="BO154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:68" x14ac:dyDescent="0.3">
@@ -36789,7 +36790,7 @@
         <v>18.648984666390387</v>
       </c>
       <c r="BO155" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="156" spans="1:68" x14ac:dyDescent="0.3">
@@ -37014,7 +37015,7 @@
         <v>14.046892341842398</v>
       </c>
       <c r="BO156" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP156">
         <v>600000</v>
@@ -37022,13 +37023,13 @@
     </row>
     <row r="157" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B157" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C157" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D157" s="36">
         <v>34</v>
@@ -37220,7 +37221,7 @@
         <v>21.836219124679992</v>
       </c>
       <c r="BO157" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BP157">
         <v>370000</v>
@@ -37231,7 +37232,7 @@
         <v>197</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C158" s="14" t="s">
         <v>102</v>
@@ -37448,7 +37449,7 @@
         <v>8.5266030013642578</v>
       </c>
       <c r="BO158" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP158">
         <v>85000</v>
@@ -37459,7 +37460,7 @@
         <v>197</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C159" s="14" t="s">
         <v>178</v>
@@ -37676,7 +37677,7 @@
         <v>13.325560089947531</v>
       </c>
       <c r="BO159" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP159">
         <v>500000</v>
@@ -37687,7 +37688,7 @@
         <v>197</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>180</v>
@@ -37904,7 +37905,7 @@
         <v>5.5679287305122491</v>
       </c>
       <c r="BO160" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP160">
         <v>95000</v>
@@ -37915,7 +37916,7 @@
         <v>197</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C161" s="41" t="s">
         <v>114</v>
@@ -38110,7 +38111,7 @@
         <v>22.164948453608247</v>
       </c>
       <c r="BO161" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP161">
         <v>370000</v>
@@ -38121,7 +38122,7 @@
         <v>197</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C162" s="22" t="s">
         <v>192</v>
@@ -38337,7 +38338,7 @@
         <v>0</v>
       </c>
       <c r="BO162" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP162">
         <v>75000</v>
@@ -38348,7 +38349,7 @@
         <v>197</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C163" s="14" t="s">
         <v>176</v>
@@ -38565,7 +38566,7 @@
         <v>11.748909029875797</v>
       </c>
       <c r="BO163" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP163">
         <v>550000</v>
@@ -38576,7 +38577,7 @@
         <v>197</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>179</v>
@@ -38793,7 +38794,7 @@
         <v>11.252912518534208</v>
       </c>
       <c r="BO164" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:68" x14ac:dyDescent="0.3">
@@ -38801,7 +38802,7 @@
         <v>197</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C165" s="14" t="s">
         <v>305</v>
@@ -39017,7 +39018,7 @@
         <v>10</v>
       </c>
       <c r="BO165" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:68" x14ac:dyDescent="0.3">
@@ -39025,7 +39026,7 @@
         <v>197</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>174</v>
@@ -39242,7 +39243,7 @@
         <v>13.7320720170888</v>
       </c>
       <c r="BO166" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP166">
         <v>170000</v>
@@ -39253,7 +39254,7 @@
         <v>197</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>177</v>
@@ -39470,7 +39471,7 @@
         <v>18.281535648994513</v>
       </c>
       <c r="BO167" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP167">
         <v>75000</v>
@@ -39481,7 +39482,7 @@
         <v>197</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>183</v>
@@ -39697,7 +39698,7 @@
         <v>26.595744680851066</v>
       </c>
       <c r="BO168" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP168">
         <v>45000</v>
@@ -39708,7 +39709,7 @@
         <v>197</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C169" s="14" t="s">
         <v>171</v>
@@ -39925,7 +39926,7 @@
         <v>7.167308515190415</v>
       </c>
       <c r="BO169" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="170" spans="1:68" x14ac:dyDescent="0.3">
@@ -39933,7 +39934,7 @@
         <v>197</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>181</v>
@@ -40150,7 +40151,7 @@
         <v>18.564356435643564</v>
       </c>
       <c r="BO170" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP170">
         <v>67000</v>
@@ -40161,7 +40162,7 @@
         <v>197</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>303</v>
@@ -40378,7 +40379,7 @@
         <v>12.575452716297788</v>
       </c>
       <c r="BO171" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP171">
         <v>28311</v>
@@ -40389,7 +40390,7 @@
         <v>197</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>300</v>
@@ -40606,7 +40607,7 @@
         <v>11.973657952504491</v>
       </c>
       <c r="BO172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="173" spans="1:68" x14ac:dyDescent="0.3">
@@ -40614,7 +40615,7 @@
         <v>197</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C173" s="41" t="s">
         <v>173</v>
@@ -40809,7 +40810,7 @@
         <v>12.427506213753107</v>
       </c>
       <c r="BO173" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP173">
         <v>430000</v>
@@ -40820,7 +40821,7 @@
         <v>197</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>184</v>
@@ -41036,7 +41037,7 @@
         <v>0</v>
       </c>
       <c r="BO174" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP174">
         <v>48000</v>
@@ -41047,7 +41048,7 @@
         <v>197</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>301</v>
@@ -41264,7 +41265,7 @@
         <v>10.641316685584565</v>
       </c>
       <c r="BO175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP175">
         <v>57580</v>
@@ -41275,7 +41276,7 @@
         <v>197</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C176" s="14" t="s">
         <v>86</v>
@@ -41492,7 +41493,7 @@
         <v>18.871773946750995</v>
       </c>
       <c r="BO176" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP176">
         <v>450000</v>
@@ -41503,7 +41504,7 @@
         <v>197</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C177" s="14" t="s">
         <v>182</v>
@@ -41716,7 +41717,7 @@
         <v>0</v>
       </c>
       <c r="BO177" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP177">
         <v>50000</v>
@@ -41727,7 +41728,7 @@
         <v>197</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C178" s="22" t="s">
         <v>172</v>
@@ -41944,7 +41945,7 @@
         <v>15.933715742511154</v>
       </c>
       <c r="BO178" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP178">
         <v>270000</v>
@@ -41955,7 +41956,7 @@
         <v>197</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C179" s="14" t="s">
         <v>281</v>
@@ -42169,7 +42170,7 @@
         <v>0</v>
       </c>
       <c r="BO179" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:68" x14ac:dyDescent="0.3">
@@ -42177,7 +42178,7 @@
         <v>197</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C180" s="14" t="s">
         <v>137</v>
@@ -42394,7 +42395,7 @@
         <v>3.4106412005457027</v>
       </c>
       <c r="BO180" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP180">
         <v>220000</v>
@@ -42405,7 +42406,7 @@
         <v>197</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C181" s="14" t="s">
         <v>278</v>
@@ -42622,7 +42623,7 @@
         <v>12.019230769230768</v>
       </c>
       <c r="BO181" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP181">
         <v>60000</v>
@@ -42633,7 +42634,7 @@
         <v>197</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C182" s="14" t="s">
         <v>136</v>
@@ -42850,7 +42851,7 @@
         <v>14.177693761814746</v>
       </c>
       <c r="BO182" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP182">
         <v>200000</v>
@@ -42861,7 +42862,7 @@
         <v>197</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C183" s="14" t="s">
         <v>265</v>
@@ -43078,7 +43079,7 @@
         <v>11.459411503770516</v>
       </c>
       <c r="BO183" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="184" spans="1:68" x14ac:dyDescent="0.3">
@@ -43086,7 +43087,7 @@
         <v>197</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C184" s="14" t="s">
         <v>279</v>
@@ -43303,7 +43304,7 @@
         <v>10.593220338983052</v>
       </c>
       <c r="BO184" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185" spans="1:68" x14ac:dyDescent="0.3">
@@ -43311,7 +43312,7 @@
         <v>197</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C185" s="14" t="s">
         <v>147</v>
@@ -43528,7 +43529,7 @@
         <v>15.702108568864963</v>
       </c>
       <c r="BO185" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP185">
         <v>50000</v>
@@ -43539,7 +43540,7 @@
         <v>197</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>145</v>
@@ -43756,7 +43757,7 @@
         <v>16.431924882629108</v>
       </c>
       <c r="BO186" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP186">
         <v>60000</v>
@@ -43767,7 +43768,7 @@
         <v>197</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C187" s="14" t="s">
         <v>275</v>
@@ -43984,7 +43985,7 @@
         <v>12.982195845697328</v>
       </c>
       <c r="BO187" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="188" spans="1:68" x14ac:dyDescent="0.3">
@@ -43992,7 +43993,7 @@
         <v>197</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C188" s="14" t="s">
         <v>142</v>
@@ -44205,7 +44206,7 @@
         <v>0</v>
       </c>
       <c r="BO188" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP188">
         <v>55000</v>
@@ -44216,7 +44217,7 @@
         <v>197</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C189" s="14" t="s">
         <v>276</v>
@@ -44432,7 +44433,7 @@
         <v>6.25</v>
       </c>
       <c r="BO189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="190" spans="1:68" x14ac:dyDescent="0.3">
@@ -44440,7 +44441,7 @@
         <v>197</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C190" s="14" t="s">
         <v>267</v>
@@ -44657,7 +44658,7 @@
         <v>14.652276463440783</v>
       </c>
       <c r="BO190" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="191" spans="1:68" x14ac:dyDescent="0.3">
@@ -44665,7 +44666,7 @@
         <v>197</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C191" s="14" t="s">
         <v>270</v>
@@ -44882,7 +44883,7 @@
         <v>9.3594009983361062</v>
       </c>
       <c r="BO191" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:68" x14ac:dyDescent="0.3">
@@ -44890,7 +44891,7 @@
         <v>197</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C192" s="14" t="s">
         <v>160</v>
@@ -45107,7 +45108,7 @@
         <v>14.640431014289062</v>
       </c>
       <c r="BO192" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP192">
         <v>550000</v>
@@ -45118,10 +45119,10 @@
         <v>197</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D193" s="7">
         <v>32</v>
@@ -45335,7 +45336,7 @@
         <v>11.894090877749431</v>
       </c>
       <c r="BO193" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP193">
         <v>500000</v>
@@ -45346,7 +45347,7 @@
         <v>197</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C194" s="14" t="s">
         <v>168</v>
@@ -45563,7 +45564,7 @@
         <v>8.9596003475238923</v>
       </c>
       <c r="BO194" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP194">
         <v>150000</v>
@@ -45574,7 +45575,7 @@
         <v>197</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C195" s="14" t="s">
         <v>273</v>
@@ -45791,7 +45792,7 @@
         <v>16.94473409801877</v>
       </c>
       <c r="BO195" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:68" x14ac:dyDescent="0.3">
@@ -45799,7 +45800,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>162</v>
@@ -46016,7 +46017,7 @@
         <v>10.285949393128986</v>
       </c>
       <c r="BO196" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP196">
         <v>350000</v>
@@ -46027,7 +46028,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C197" s="14" t="s">
         <v>148</v>
@@ -46244,7 +46245,7 @@
         <v>12.69035532994924</v>
       </c>
       <c r="BO197" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP197">
         <v>45000</v>
@@ -46255,7 +46256,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C198" s="14" t="s">
         <v>125</v>
@@ -46472,7 +46473,7 @@
         <v>9.0375056484410301</v>
       </c>
       <c r="BO198" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP198">
         <v>400000</v>
@@ -46483,7 +46484,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C199" s="14" t="s">
         <v>269</v>
@@ -46700,7 +46701,7 @@
         <v>14.482758620689655</v>
       </c>
       <c r="BO199" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:68" x14ac:dyDescent="0.3">
@@ -46708,7 +46709,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>141</v>
@@ -46925,7 +46926,7 @@
         <v>20.949720670391063</v>
       </c>
       <c r="BO200" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP200">
         <v>80000</v>
@@ -46936,7 +46937,7 @@
         <v>197</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C201" s="14" t="s">
         <v>155</v>
@@ -47153,7 +47154,7 @@
         <v>18.281535648994517</v>
       </c>
       <c r="BO201" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP201">
         <v>60000</v>
@@ -47161,13 +47162,13 @@
     </row>
     <row r="202" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B202" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="C202" s="46" t="s">
         <v>339</v>
-      </c>
-      <c r="C202" s="46" t="s">
-        <v>340</v>
       </c>
       <c r="D202" s="40">
         <v>44</v>
@@ -47359,7 +47360,7 @@
         <v>12.246023744555339</v>
       </c>
       <c r="BO202" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP202">
         <v>430000</v>
@@ -47367,13 +47368,13 @@
     </row>
     <row r="203" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B203" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C203" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D203" s="40">
         <v>43</v>
@@ -47565,7 +47566,7 @@
         <v>14.487297211095687</v>
       </c>
       <c r="BO203" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP203">
         <v>70000</v>
@@ -47573,13 +47574,13 @@
     </row>
     <row r="204" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B204" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C204" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D204" s="40">
         <v>54</v>
@@ -47771,19 +47772,19 @@
         <v>12.538955359405982</v>
       </c>
       <c r="BO204" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BP204" s="45"/>
     </row>
     <row r="205" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B205" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C205" s="46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D205" s="40">
         <v>52</v>
@@ -47975,7 +47976,7 @@
         <v>13.692820741386832</v>
       </c>
       <c r="BO205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP205">
         <v>420000</v>
@@ -47983,13 +47984,13 @@
     </row>
     <row r="206" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B206" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C206" s="46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D206" s="40">
         <v>52</v>
@@ -48181,7 +48182,7 @@
         <v>15.573010010990156</v>
       </c>
       <c r="BO206" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP206">
         <v>400000</v>
@@ -48189,13 +48190,13 @@
     </row>
     <row r="207" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B207" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C207" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D207" s="40">
         <v>51</v>
@@ -48387,19 +48388,19 @@
         <v>11.833066608864879</v>
       </c>
       <c r="BO207" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BP207" s="45"/>
     </row>
     <row r="208" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B208" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C208" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D208" s="40">
         <v>44</v>
@@ -48591,19 +48592,19 @@
         <v>15.271866771977493</v>
       </c>
       <c r="BO208" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP208" s="45"/>
     </row>
     <row r="209" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B209" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C209" s="49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D209" s="54">
         <v>11</v>
@@ -48795,7 +48796,7 @@
         <v>12.1604729008356</v>
       </c>
       <c r="BO209" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BP209">
         <v>600000</v>
